--- a/Code/Results/Cases/Case_7_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.026722710832819</v>
+        <v>1.011762605007873</v>
       </c>
       <c r="D2">
-        <v>1.044389053768708</v>
+        <v>1.032208743837549</v>
       </c>
       <c r="E2">
-        <v>1.038501222812395</v>
+        <v>1.025989137616941</v>
       </c>
       <c r="F2">
-        <v>1.048343870109461</v>
+        <v>1.035445099156419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059051860096121</v>
+        <v>1.052865239322504</v>
       </c>
       <c r="J2">
-        <v>1.04813250489457</v>
+        <v>1.033597101608424</v>
       </c>
       <c r="K2">
-        <v>1.055262769099233</v>
+        <v>1.043236880754228</v>
       </c>
       <c r="L2">
-        <v>1.049449019246893</v>
+        <v>1.037097897472165</v>
       </c>
       <c r="M2">
-        <v>1.059168407418045</v>
+        <v>1.046431762882789</v>
       </c>
       <c r="N2">
-        <v>1.049620973273999</v>
+        <v>1.035064928047952</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.034047694188123</v>
+        <v>1.016624724239837</v>
       </c>
       <c r="D3">
-        <v>1.050223224328543</v>
+        <v>1.036008468895067</v>
       </c>
       <c r="E3">
-        <v>1.044763410424463</v>
+        <v>1.030030841439955</v>
       </c>
       <c r="F3">
-        <v>1.054870279372907</v>
+        <v>1.03977572426404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061533316070916</v>
+        <v>1.054305606524358</v>
       </c>
       <c r="J3">
-        <v>1.053651338250041</v>
+        <v>1.036672218646134</v>
       </c>
       <c r="K3">
-        <v>1.060251420805351</v>
+        <v>1.046200447526547</v>
       </c>
       <c r="L3">
-        <v>1.054853863986335</v>
+        <v>1.04029336698113</v>
       </c>
       <c r="M3">
-        <v>1.064846111682804</v>
+        <v>1.049923757577298</v>
       </c>
       <c r="N3">
-        <v>1.055147644005854</v>
+        <v>1.038144412104577</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.038652566298101</v>
+        <v>1.019703706909706</v>
       </c>
       <c r="D4">
-        <v>1.053892041148742</v>
+        <v>1.038414679531111</v>
       </c>
       <c r="E4">
-        <v>1.048705456689141</v>
+        <v>1.032595830354291</v>
       </c>
       <c r="F4">
-        <v>1.058978565469751</v>
+        <v>1.042522655278767</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063077845408373</v>
+        <v>1.055202654341296</v>
       </c>
       <c r="J4">
-        <v>1.05711667704069</v>
+        <v>1.03861647500454</v>
       </c>
       <c r="K4">
-        <v>1.063380798231732</v>
+        <v>1.048070567806752</v>
       </c>
       <c r="L4">
-        <v>1.058249547293832</v>
+        <v>1.042316146992203</v>
       </c>
       <c r="M4">
-        <v>1.068413699995473</v>
+        <v>1.052133590226327</v>
       </c>
       <c r="N4">
-        <v>1.058617903975065</v>
+        <v>1.040091429530022</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040557897321472</v>
+        <v>1.020982638198914</v>
       </c>
       <c r="D5">
-        <v>1.055410243247925</v>
+        <v>1.039414097128536</v>
       </c>
       <c r="E5">
-        <v>1.050337723683133</v>
+        <v>1.033662543890875</v>
       </c>
       <c r="F5">
-        <v>1.060679644961602</v>
+        <v>1.043664695917489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.063713145157093</v>
+        <v>1.05557159220048</v>
       </c>
       <c r="J5">
-        <v>1.058549466382846</v>
+        <v>1.039423289553979</v>
       </c>
       <c r="K5">
-        <v>1.06467392432256</v>
+        <v>1.048845734311835</v>
       </c>
       <c r="L5">
-        <v>1.059653988546644</v>
+        <v>1.043156129073682</v>
       </c>
       <c r="M5">
-        <v>1.069889350225815</v>
+        <v>1.053051088282086</v>
       </c>
       <c r="N5">
-        <v>1.060052728042431</v>
+        <v>1.040899389848663</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040876066751969</v>
+        <v>1.021196485864942</v>
       </c>
       <c r="D6">
-        <v>1.055663774058927</v>
+        <v>1.039581202504766</v>
       </c>
       <c r="E6">
-        <v>1.05061036205723</v>
+        <v>1.033840981065579</v>
       </c>
       <c r="F6">
-        <v>1.06096377582152</v>
+        <v>1.043855713805273</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.063819009639616</v>
+        <v>1.055633064076835</v>
       </c>
       <c r="J6">
-        <v>1.058788663417678</v>
+        <v>1.039558148506146</v>
       </c>
       <c r="K6">
-        <v>1.064889760180918</v>
+        <v>1.048975250829693</v>
       </c>
       <c r="L6">
-        <v>1.059888479351419</v>
+        <v>1.043296566195642</v>
       </c>
       <c r="M6">
-        <v>1.070135736675716</v>
+        <v>1.053204475863675</v>
       </c>
       <c r="N6">
-        <v>1.060292264764488</v>
+        <v>1.041034440316011</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.038678143302741</v>
+        <v>1.019720856080759</v>
       </c>
       <c r="D7">
-        <v>1.053912420791328</v>
+        <v>1.03842808102819</v>
       </c>
       <c r="E7">
-        <v>1.048727363503583</v>
+        <v>1.032610128895638</v>
       </c>
       <c r="F7">
-        <v>1.059001395910434</v>
+        <v>1.042537964859166</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063086388625554</v>
+        <v>1.055207616008476</v>
       </c>
       <c r="J7">
-        <v>1.057135914893913</v>
+        <v>1.038627296702088</v>
       </c>
       <c r="K7">
-        <v>1.063398163867501</v>
+        <v>1.048080968529203</v>
       </c>
       <c r="L7">
-        <v>1.058268402743575</v>
+        <v>1.042327411260582</v>
       </c>
       <c r="M7">
-        <v>1.068433511039154</v>
+        <v>1.052145894629375</v>
       </c>
       <c r="N7">
-        <v>1.058637169148246</v>
+        <v>1.040102266595621</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029227240392473</v>
+        <v>1.013420052346454</v>
       </c>
       <c r="D8">
-        <v>1.046383545721359</v>
+        <v>1.033503993931115</v>
       </c>
       <c r="E8">
-        <v>1.040641193973803</v>
+        <v>1.027365720988109</v>
       </c>
       <c r="F8">
-        <v>1.0505741515066</v>
+        <v>1.036920385495433</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059903525820728</v>
+        <v>1.053359375852144</v>
       </c>
       <c r="J8">
-        <v>1.050020306367216</v>
+        <v>1.03464600237716</v>
       </c>
       <c r="K8">
-        <v>1.056969844075961</v>
+        <v>1.044248479441019</v>
       </c>
       <c r="L8">
-        <v>1.051297418503675</v>
+        <v>1.038187338499266</v>
       </c>
       <c r="M8">
-        <v>1.061110018291785</v>
+        <v>1.047622434037523</v>
       </c>
       <c r="N8">
-        <v>1.051511455641269</v>
+        <v>1.036115318376091</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.011454543135752</v>
+        <v>1.001774434009755</v>
       </c>
       <c r="D9">
-        <v>1.032239628156304</v>
+        <v>1.024405881175369</v>
       </c>
       <c r="E9">
-        <v>1.025482192134847</v>
+        <v>1.017719159603983</v>
       </c>
       <c r="F9">
-        <v>1.034775067359826</v>
+        <v>1.026576072433979</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053796152438413</v>
+        <v>1.049825644535934</v>
       </c>
       <c r="J9">
-        <v>1.036609196502522</v>
+        <v>1.027264687666272</v>
       </c>
       <c r="K9">
-        <v>1.044830432266717</v>
+        <v>1.037115022163749</v>
       </c>
       <c r="L9">
-        <v>1.038174937760907</v>
+        <v>1.030531151463793</v>
       </c>
       <c r="M9">
-        <v>1.047328059024122</v>
+        <v>1.039252199956317</v>
       </c>
       <c r="N9">
-        <v>1.038081300462292</v>
+        <v>1.028723521351664</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9987189988279145</v>
+        <v>0.9936028531091724</v>
       </c>
       <c r="D10">
-        <v>1.022122083376714</v>
+        <v>1.018028246034908</v>
       </c>
       <c r="E10">
-        <v>1.014658609404453</v>
+        <v>1.010985371056135</v>
       </c>
       <c r="F10">
-        <v>1.023494050878738</v>
+        <v>1.019347394011944</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04934151613918</v>
+        <v>1.047270011363071</v>
       </c>
       <c r="J10">
-        <v>1.026983533495966</v>
+        <v>1.022072600424258</v>
       </c>
       <c r="K10">
-        <v>1.036103083136505</v>
+        <v>1.032079449456607</v>
       </c>
       <c r="L10">
-        <v>1.028768147637731</v>
+        <v>1.025159074074774</v>
       </c>
       <c r="M10">
-        <v>1.037451685512953</v>
+        <v>1.033375896267269</v>
       </c>
       <c r="N10">
-        <v>1.028441967910188</v>
+        <v>1.023524060750227</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9929588422144988</v>
+        <v>0.9899572538938821</v>
       </c>
       <c r="D11">
-        <v>1.017552242155244</v>
+        <v>1.015185543514985</v>
       </c>
       <c r="E11">
-        <v>1.009774242564812</v>
+        <v>1.007990391198587</v>
       </c>
       <c r="F11">
-        <v>1.018403170643474</v>
+        <v>1.016130410551157</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047309360978236</v>
+        <v>1.046112666444359</v>
       </c>
       <c r="J11">
-        <v>1.022627503889918</v>
+        <v>1.019753874241113</v>
       </c>
       <c r="K11">
-        <v>1.032150570112912</v>
+        <v>1.029826654377539</v>
       </c>
       <c r="L11">
-        <v>1.024514155365533</v>
+        <v>1.02276317739932</v>
       </c>
       <c r="M11">
-        <v>1.03298617948779</v>
+        <v>1.030754409936765</v>
       </c>
       <c r="N11">
-        <v>1.024079752242456</v>
+        <v>1.021202041709939</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9907789181028026</v>
+        <v>0.9885860304207447</v>
       </c>
       <c r="D12">
-        <v>1.015823919298963</v>
+        <v>1.014116793498773</v>
       </c>
       <c r="E12">
-        <v>1.007927585718947</v>
+        <v>1.006865341753649</v>
       </c>
       <c r="F12">
-        <v>1.01647842423704</v>
+        <v>1.014921679068688</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046537800059256</v>
+        <v>1.045674844807857</v>
       </c>
       <c r="J12">
-        <v>1.020978723395286</v>
+        <v>1.018881430436889</v>
       </c>
       <c r="K12">
-        <v>1.030654110053222</v>
+        <v>1.02897844501338</v>
       </c>
       <c r="L12">
-        <v>1.022904465562025</v>
+        <v>1.021862184106844</v>
       </c>
       <c r="M12">
-        <v>1.031296589569177</v>
+        <v>1.029768480097682</v>
       </c>
       <c r="N12">
-        <v>1.022428630290404</v>
+        <v>1.020328358935443</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.991248405178603</v>
+        <v>0.9888809521099683</v>
       </c>
       <c r="D13">
-        <v>1.016196091447614</v>
+        <v>1.014346636222122</v>
       </c>
       <c r="E13">
-        <v>1.008325212207142</v>
+        <v>1.007107249463715</v>
       </c>
       <c r="F13">
-        <v>1.016892865677147</v>
+        <v>1.0151815931017</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046704080611942</v>
+        <v>1.045769123206089</v>
       </c>
       <c r="J13">
-        <v>1.021333827902288</v>
+        <v>1.019069087507319</v>
       </c>
       <c r="K13">
-        <v>1.030976426650349</v>
+        <v>1.029160914905815</v>
       </c>
       <c r="L13">
-        <v>1.023251129432837</v>
+        <v>1.022055959929994</v>
       </c>
       <c r="M13">
-        <v>1.031660454507845</v>
+        <v>1.029980527680958</v>
       </c>
       <c r="N13">
-        <v>1.022784239086536</v>
+        <v>1.020516282500438</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9927794935656873</v>
+        <v>0.9898442625636734</v>
       </c>
       <c r="D14">
-        <v>1.017410023989691</v>
+        <v>1.015097466258122</v>
       </c>
       <c r="E14">
-        <v>1.009622274717658</v>
+        <v>1.007897655015801</v>
       </c>
       <c r="F14">
-        <v>1.018244776770723</v>
+        <v>1.016030782443239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047245932312536</v>
+        <v>1.046076639656474</v>
       </c>
       <c r="J14">
-        <v>1.022491858220965</v>
+        <v>1.019681988994597</v>
       </c>
       <c r="K14">
-        <v>1.032027464022261</v>
+        <v>1.029756777436143</v>
       </c>
       <c r="L14">
-        <v>1.024381716064606</v>
+        <v>1.022688929895096</v>
       </c>
       <c r="M14">
-        <v>1.032847163496902</v>
+        <v>1.030673165173777</v>
       </c>
       <c r="N14">
-        <v>1.023943913941094</v>
+        <v>1.021130054378128</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9937173908065169</v>
+        <v>0.9904354955650755</v>
       </c>
       <c r="D15">
-        <v>1.018153795758602</v>
+        <v>1.015558355168199</v>
       </c>
       <c r="E15">
-        <v>1.010417060303427</v>
+        <v>1.008382961698145</v>
       </c>
       <c r="F15">
-        <v>1.019073169723839</v>
+        <v>1.016552144185804</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047577529551479</v>
+        <v>1.046265049953508</v>
       </c>
       <c r="J15">
-        <v>1.023201203045762</v>
+        <v>1.020058120462894</v>
       </c>
       <c r="K15">
-        <v>1.032671217903894</v>
+        <v>1.030122377476864</v>
       </c>
       <c r="L15">
-        <v>1.025074312710547</v>
+        <v>1.023077441465939</v>
       </c>
       <c r="M15">
-        <v>1.033574158775872</v>
+        <v>1.031098286855895</v>
       </c>
       <c r="N15">
-        <v>1.024654266116906</v>
+        <v>1.021506719996253</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.999095822699913</v>
+        <v>0.9938424585587886</v>
       </c>
       <c r="D16">
-        <v>1.02242118249989</v>
+        <v>1.018215142590523</v>
       </c>
       <c r="E16">
-        <v>1.014978381999787</v>
+        <v>1.011182412256985</v>
       </c>
       <c r="F16">
-        <v>1.023827341898824</v>
+        <v>1.019559001234041</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049474107657741</v>
+        <v>1.047345725649946</v>
       </c>
       <c r="J16">
-        <v>1.027268460017239</v>
+        <v>1.022224953126248</v>
       </c>
       <c r="K16">
-        <v>1.036361556707421</v>
+        <v>1.032227389517746</v>
       </c>
       <c r="L16">
-        <v>1.029046463399558</v>
+        <v>1.025316564461832</v>
       </c>
       <c r="M16">
-        <v>1.037743857672581</v>
+        <v>1.033548201033207</v>
       </c>
       <c r="N16">
-        <v>1.028727299059803</v>
+        <v>1.023676629810528</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.00240151954165</v>
+        <v>0.9959501789260913</v>
       </c>
       <c r="D17">
-        <v>1.025045760305672</v>
+        <v>1.019859504510342</v>
       </c>
       <c r="E17">
-        <v>1.017784858294674</v>
+        <v>1.012916762954177</v>
       </c>
       <c r="F17">
-        <v>1.026752452609146</v>
+        <v>1.021421345740458</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050635322369225</v>
+        <v>1.048009809555487</v>
       </c>
       <c r="J17">
-        <v>1.029767722684801</v>
+        <v>1.023564880316028</v>
       </c>
       <c r="K17">
-        <v>1.0386284493495</v>
+        <v>1.033528059877722</v>
       </c>
       <c r="L17">
-        <v>1.031488078417302</v>
+        <v>1.026702042505756</v>
       </c>
       <c r="M17">
-        <v>1.040307128659092</v>
+        <v>1.035063924315427</v>
       </c>
       <c r="N17">
-        <v>1.031230110967022</v>
+        <v>1.02501845985061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00430623631364</v>
+        <v>0.9971692979215439</v>
       </c>
       <c r="D18">
-        <v>1.026558592752756</v>
+        <v>1.020810850286621</v>
       </c>
       <c r="E18">
-        <v>1.019402952821209</v>
+        <v>1.013920786800273</v>
       </c>
       <c r="F18">
-        <v>1.02843893842847</v>
+        <v>1.022499286385482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051302764809062</v>
+        <v>1.048392284979436</v>
       </c>
       <c r="J18">
-        <v>1.031207540566444</v>
+        <v>1.024339673967538</v>
       </c>
       <c r="K18">
-        <v>1.039934114057036</v>
+        <v>1.034279776554142</v>
       </c>
       <c r="L18">
-        <v>1.032894964970686</v>
+        <v>1.027503479136957</v>
       </c>
       <c r="M18">
-        <v>1.041784193485242</v>
+        <v>1.035940634386938</v>
       </c>
       <c r="N18">
-        <v>1.032671973555206</v>
+        <v>1.025794353797975</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.004951817430306</v>
+        <v>0.9975832708819719</v>
       </c>
       <c r="D19">
-        <v>1.027071440833842</v>
+        <v>1.0211339335733</v>
       </c>
       <c r="E19">
-        <v>1.019951555866999</v>
+        <v>1.0142618648521</v>
       </c>
       <c r="F19">
-        <v>1.029010727610288</v>
+        <v>1.022865444453617</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051528705007443</v>
+        <v>1.04852188160374</v>
       </c>
       <c r="J19">
-        <v>1.031695506046205</v>
+        <v>1.024602728074363</v>
       </c>
       <c r="K19">
-        <v>1.040376564451319</v>
+        <v>1.034534931009774</v>
       </c>
       <c r="L19">
-        <v>1.033371816590888</v>
+        <v>1.027775630359978</v>
       </c>
       <c r="M19">
-        <v>1.042284844507457</v>
+        <v>1.03623833531355</v>
       </c>
       <c r="N19">
-        <v>1.03316063200192</v>
+        <v>1.026057781471803</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002049297636883</v>
+        <v>0.9957251104355833</v>
       </c>
       <c r="D20">
-        <v>1.024766050957809</v>
+        <v>1.019683889605691</v>
       </c>
       <c r="E20">
-        <v>1.017485720697082</v>
+        <v>1.01273147373913</v>
       </c>
       <c r="F20">
-        <v>1.026440670818582</v>
+        <v>1.02122240095244</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05051176467436</v>
+        <v>1.047939065886085</v>
       </c>
       <c r="J20">
-        <v>1.029501450223029</v>
+        <v>1.023421822351614</v>
       </c>
       <c r="K20">
-        <v>1.038386963088434</v>
+        <v>1.03338923218037</v>
       </c>
       <c r="L20">
-        <v>1.031227918596292</v>
+        <v>1.026554089719739</v>
       </c>
       <c r="M20">
-        <v>1.040033997869214</v>
+        <v>1.034902069846446</v>
       </c>
       <c r="N20">
-        <v>1.030963460367813</v>
+        <v>1.024875198727478</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9923297698535111</v>
+        <v>0.9895610714783726</v>
       </c>
       <c r="D21">
-        <v>1.017053425238154</v>
+        <v>1.01487672556068</v>
       </c>
       <c r="E21">
-        <v>1.00924123939445</v>
+        <v>1.007665253288205</v>
       </c>
       <c r="F21">
-        <v>1.017847629015947</v>
+        <v>1.01578110454796</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047086842769873</v>
+        <v>1.045986305294952</v>
       </c>
       <c r="J21">
-        <v>1.022151717898629</v>
+        <v>1.019501817812405</v>
       </c>
       <c r="K21">
-        <v>1.031718761010333</v>
+        <v>1.029581630669867</v>
       </c>
       <c r="L21">
-        <v>1.0240496235326</v>
+        <v>1.022502845868895</v>
       </c>
       <c r="M21">
-        <v>1.032498582079009</v>
+        <v>1.030469542525802</v>
       </c>
       <c r="N21">
-        <v>1.023603290580486</v>
+        <v>1.020949627332192</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9859832431908059</v>
+        <v>0.9855861057445765</v>
       </c>
       <c r="D22">
-        <v>1.012024047847943</v>
+        <v>1.011779601636694</v>
       </c>
       <c r="E22">
-        <v>1.003868646364643</v>
+        <v>1.0044067572805</v>
       </c>
       <c r="F22">
-        <v>1.012247823661688</v>
+        <v>1.012279691022796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044835958654286</v>
+        <v>1.044712463397484</v>
       </c>
       <c r="J22">
-        <v>1.017351216244451</v>
+        <v>1.016972239370875</v>
       </c>
       <c r="K22">
-        <v>1.027361010946142</v>
+        <v>1.027121259273327</v>
       </c>
       <c r="L22">
-        <v>1.019363852220375</v>
+        <v>1.019891418028914</v>
       </c>
       <c r="M22">
-        <v>1.027580491794554</v>
+        <v>1.02761174772247</v>
       </c>
       <c r="N22">
-        <v>1.018795971663334</v>
+        <v>1.018416456599128</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9893712492078388</v>
+        <v>0.9877030760427946</v>
       </c>
       <c r="D23">
-        <v>1.014708212330529</v>
+        <v>1.013428754195421</v>
       </c>
       <c r="E23">
-        <v>1.006735658975379</v>
+        <v>1.006141323383288</v>
       </c>
       <c r="F23">
-        <v>1.015236091252608</v>
+        <v>1.014143726241329</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04603888292294</v>
+        <v>1.045392226877455</v>
       </c>
       <c r="J23">
-        <v>1.019913983035786</v>
+        <v>1.018319572216946</v>
       </c>
       <c r="K23">
-        <v>1.029687623240678</v>
+        <v>1.028432035444827</v>
       </c>
       <c r="L23">
-        <v>1.021865103927184</v>
+        <v>1.021282077600224</v>
       </c>
       <c r="M23">
-        <v>1.030205676607677</v>
+        <v>1.029133658854246</v>
       </c>
       <c r="N23">
-        <v>1.021362377877466</v>
+        <v>1.019765702812382</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002208523736316</v>
+        <v>0.9958268408912524</v>
       </c>
       <c r="D24">
-        <v>1.02489249513391</v>
+        <v>1.019763266425183</v>
       </c>
       <c r="E24">
-        <v>1.017620946233703</v>
+        <v>1.012815221376552</v>
       </c>
       <c r="F24">
-        <v>1.026581612204636</v>
+        <v>1.021312321237271</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050567625503216</v>
+        <v>1.047971046942954</v>
       </c>
       <c r="J24">
-        <v>1.029621822602435</v>
+        <v>1.023486484946458</v>
       </c>
       <c r="K24">
-        <v>1.038496131391298</v>
+        <v>1.033451983854739</v>
       </c>
       <c r="L24">
-        <v>1.031345526800419</v>
+        <v>1.026620963845339</v>
       </c>
       <c r="M24">
-        <v>1.040157469503418</v>
+        <v>1.034975227692464</v>
       </c>
       <c r="N24">
-        <v>1.031084003689804</v>
+        <v>1.024939953150622</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.016194783207016</v>
+        <v>1.00485366019945</v>
       </c>
       <c r="D25">
-        <v>1.036009609431108</v>
+        <v>1.026810746449845</v>
       </c>
       <c r="E25">
-        <v>1.029519196574505</v>
+        <v>1.020264042968288</v>
       </c>
       <c r="F25">
-        <v>1.038982606349737</v>
+        <v>1.029306369850647</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055438758614001</v>
+        <v>1.050773357888683</v>
       </c>
       <c r="J25">
-        <v>1.040189155304445</v>
+        <v>1.02921877616529</v>
       </c>
       <c r="K25">
-        <v>1.048073505844964</v>
+        <v>1.039006643366706</v>
       </c>
       <c r="L25">
-        <v>1.041675917763283</v>
+        <v>1.032555724106383</v>
       </c>
       <c r="M25">
-        <v>1.05100447286412</v>
+        <v>1.041466159964099</v>
       </c>
       <c r="N25">
-        <v>1.04166634321634</v>
+        <v>1.030680384880488</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011762605007873</v>
+        <v>1.005469410230519</v>
       </c>
       <c r="D2">
-        <v>1.032208743837549</v>
+        <v>1.026454643140848</v>
       </c>
       <c r="E2">
-        <v>1.025989137616941</v>
+        <v>1.021248548861103</v>
       </c>
       <c r="F2">
-        <v>1.035445099156419</v>
+        <v>1.032250420870088</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052865239322504</v>
+        <v>1.049943434416049</v>
       </c>
       <c r="J2">
-        <v>1.033597101608424</v>
+        <v>1.027487753814445</v>
       </c>
       <c r="K2">
-        <v>1.043236880754228</v>
+        <v>1.037557326417788</v>
       </c>
       <c r="L2">
-        <v>1.037097897472165</v>
+        <v>1.032419586685561</v>
       </c>
       <c r="M2">
-        <v>1.046431762882789</v>
+        <v>1.043278021637709</v>
       </c>
       <c r="N2">
-        <v>1.035064928047952</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.013088389210133</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042824038005145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016624724239837</v>
+        <v>1.009153237141399</v>
       </c>
       <c r="D3">
-        <v>1.036008468895067</v>
+        <v>1.029084967893776</v>
       </c>
       <c r="E3">
-        <v>1.030030841439955</v>
+        <v>1.02409875086121</v>
       </c>
       <c r="F3">
-        <v>1.03977572426404</v>
+        <v>1.035017506462888</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054305606524358</v>
+        <v>1.050786301644021</v>
       </c>
       <c r="J3">
-        <v>1.036672218646134</v>
+        <v>1.029397448140721</v>
       </c>
       <c r="K3">
-        <v>1.046200447526547</v>
+        <v>1.039358749562948</v>
       </c>
       <c r="L3">
-        <v>1.04029336698113</v>
+        <v>1.034432296354201</v>
       </c>
       <c r="M3">
-        <v>1.049923757577298</v>
+        <v>1.045221110515108</v>
       </c>
       <c r="N3">
-        <v>1.038144412104577</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013726841984145</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044361856010237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019703706909706</v>
+        <v>1.011494356009624</v>
       </c>
       <c r="D4">
-        <v>1.038414679531111</v>
+        <v>1.03075668316955</v>
       </c>
       <c r="E4">
-        <v>1.032595830354291</v>
+        <v>1.025915701237119</v>
       </c>
       <c r="F4">
-        <v>1.042522655278767</v>
+        <v>1.036781224044582</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055202654341296</v>
+        <v>1.051307310172714</v>
       </c>
       <c r="J4">
-        <v>1.03861647500454</v>
+        <v>1.030608536076385</v>
       </c>
       <c r="K4">
-        <v>1.048070567806752</v>
+        <v>1.040497549724301</v>
       </c>
       <c r="L4">
-        <v>1.042316146992203</v>
+        <v>1.035711093134848</v>
       </c>
       <c r="M4">
-        <v>1.052133590226327</v>
+        <v>1.046455108775391</v>
       </c>
       <c r="N4">
-        <v>1.040091429530022</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.014131658847502</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.045338477048549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020982638198914</v>
+        <v>1.012468659335417</v>
       </c>
       <c r="D5">
-        <v>1.039414097128536</v>
+        <v>1.031452379101514</v>
       </c>
       <c r="E5">
-        <v>1.033662543890875</v>
+        <v>1.02667317274584</v>
       </c>
       <c r="F5">
-        <v>1.043664695917489</v>
+        <v>1.037516438037773</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05557159220048</v>
+        <v>1.051520572876642</v>
       </c>
       <c r="J5">
-        <v>1.039423289553979</v>
+        <v>1.031111914380573</v>
       </c>
       <c r="K5">
-        <v>1.048845734311835</v>
+        <v>1.040969994704866</v>
       </c>
       <c r="L5">
-        <v>1.043156129073682</v>
+        <v>1.036243185811402</v>
       </c>
       <c r="M5">
-        <v>1.053051088282086</v>
+        <v>1.046968421214834</v>
       </c>
       <c r="N5">
-        <v>1.040899389848663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.014299897695897</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045744726612175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.021196485864942</v>
+        <v>1.01263167655227</v>
       </c>
       <c r="D6">
-        <v>1.039581202504766</v>
+        <v>1.03156877798654</v>
       </c>
       <c r="E6">
-        <v>1.033840981065579</v>
+        <v>1.026799986462868</v>
       </c>
       <c r="F6">
-        <v>1.043855713805273</v>
+        <v>1.037639521467246</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055633064076835</v>
+        <v>1.051556044225752</v>
       </c>
       <c r="J6">
-        <v>1.039558148506146</v>
+        <v>1.03119609951949</v>
       </c>
       <c r="K6">
-        <v>1.048975250829693</v>
+        <v>1.041048953846002</v>
       </c>
       <c r="L6">
-        <v>1.043296566195642</v>
+        <v>1.03633220679964</v>
       </c>
       <c r="M6">
-        <v>1.053204475863675</v>
+        <v>1.047054291832295</v>
       </c>
       <c r="N6">
-        <v>1.041034440316011</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.014328032804583</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045812686955483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019720856080759</v>
+        <v>1.011507413238325</v>
       </c>
       <c r="D7">
-        <v>1.03842808102819</v>
+        <v>1.030766006760606</v>
       </c>
       <c r="E7">
-        <v>1.032610128895638</v>
+        <v>1.025925847439063</v>
       </c>
       <c r="F7">
-        <v>1.042537964859166</v>
+        <v>1.036791072375698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055207616008476</v>
+        <v>1.051310182380152</v>
       </c>
       <c r="J7">
-        <v>1.038627296702088</v>
+        <v>1.030615284718899</v>
       </c>
       <c r="K7">
-        <v>1.048080968529203</v>
+        <v>1.04050388718275</v>
       </c>
       <c r="L7">
-        <v>1.042327411260582</v>
+        <v>1.035718224482092</v>
       </c>
       <c r="M7">
-        <v>1.052145894629375</v>
+        <v>1.046461988980715</v>
       </c>
       <c r="N7">
-        <v>1.040102266595621</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.014133914455642</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.045343922233507</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013420052346454</v>
+        <v>1.006723366242098</v>
       </c>
       <c r="D8">
-        <v>1.033503993931115</v>
+        <v>1.027349939517829</v>
       </c>
       <c r="E8">
-        <v>1.027365720988109</v>
+        <v>1.022217547080617</v>
       </c>
       <c r="F8">
-        <v>1.036920385495433</v>
+        <v>1.033191209732967</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053359375852144</v>
+        <v>1.050233376032862</v>
       </c>
       <c r="J8">
-        <v>1.03464600237716</v>
+        <v>1.028138319464968</v>
       </c>
       <c r="K8">
-        <v>1.044248479441019</v>
+        <v>1.038171756817673</v>
       </c>
       <c r="L8">
-        <v>1.038187338499266</v>
+        <v>1.033104747928375</v>
       </c>
       <c r="M8">
-        <v>1.047622434037523</v>
+        <v>1.043939597991327</v>
       </c>
       <c r="N8">
-        <v>1.036115318376091</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.013305902731957</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043347629462083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001774434009755</v>
+        <v>0.997953799344374</v>
       </c>
       <c r="D9">
-        <v>1.024405881175369</v>
+        <v>1.021091150872367</v>
       </c>
       <c r="E9">
-        <v>1.017719159603983</v>
+        <v>1.015466015417183</v>
       </c>
       <c r="F9">
-        <v>1.026576072433979</v>
+        <v>1.026635429380309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049825644535934</v>
+        <v>1.048145930912496</v>
       </c>
       <c r="J9">
-        <v>1.027264687666272</v>
+        <v>1.023579021725281</v>
       </c>
       <c r="K9">
-        <v>1.037115022163749</v>
+        <v>1.033851062022497</v>
       </c>
       <c r="L9">
-        <v>1.030531151463793</v>
+        <v>1.028313053726902</v>
       </c>
       <c r="M9">
-        <v>1.039252199956317</v>
+        <v>1.039310656449578</v>
       </c>
       <c r="N9">
-        <v>1.028723521351664</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011781259167891</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039684137736741</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9936028531091724</v>
+        <v>0.9919092245552773</v>
       </c>
       <c r="D10">
-        <v>1.018028246034908</v>
+        <v>1.016797597189013</v>
       </c>
       <c r="E10">
-        <v>1.010985371056135</v>
+        <v>1.010867726767774</v>
       </c>
       <c r="F10">
-        <v>1.019347394011944</v>
+        <v>1.022202656032957</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047270011363071</v>
+        <v>1.04664736529593</v>
       </c>
       <c r="J10">
-        <v>1.022072600424258</v>
+        <v>1.020447566737252</v>
       </c>
       <c r="K10">
-        <v>1.032079449456607</v>
+        <v>1.030870047501529</v>
       </c>
       <c r="L10">
-        <v>1.025159074074774</v>
+        <v>1.025043494804883</v>
       </c>
       <c r="M10">
-        <v>1.033375896267269</v>
+        <v>1.036182281370893</v>
       </c>
       <c r="N10">
-        <v>1.023524060750227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010737754399287</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.037259746082349</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9899572538938821</v>
+        <v>0.9896264274463941</v>
       </c>
       <c r="D11">
-        <v>1.015185543514985</v>
+        <v>1.015297446334007</v>
       </c>
       <c r="E11">
-        <v>1.007990391198587</v>
+        <v>1.009314269750361</v>
       </c>
       <c r="F11">
-        <v>1.016130410551157</v>
+        <v>1.020968277738183</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046112666444359</v>
+        <v>1.046169246047401</v>
       </c>
       <c r="J11">
-        <v>1.019753874241113</v>
+        <v>1.019437218786086</v>
       </c>
       <c r="K11">
-        <v>1.029826654377539</v>
+        <v>1.029936528481717</v>
       </c>
       <c r="L11">
-        <v>1.02276317739932</v>
+        <v>1.024062644594751</v>
       </c>
       <c r="M11">
-        <v>1.030754409936765</v>
+        <v>1.035505308049901</v>
       </c>
       <c r="N11">
-        <v>1.021202041709939</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010434739874847</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037160870040791</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9885860304207447</v>
+        <v>0.9889152311273014</v>
       </c>
       <c r="D12">
-        <v>1.014116793498773</v>
+        <v>1.014880391510074</v>
       </c>
       <c r="E12">
-        <v>1.006865341753649</v>
+        <v>1.008905482320561</v>
       </c>
       <c r="F12">
-        <v>1.014921679068688</v>
+        <v>1.020768630711158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045674844807857</v>
+        <v>1.046060836883143</v>
       </c>
       <c r="J12">
-        <v>1.018881430436889</v>
+        <v>1.019196241619462</v>
       </c>
       <c r="K12">
-        <v>1.02897844501338</v>
+        <v>1.029727953565394</v>
       </c>
       <c r="L12">
-        <v>1.021862184106844</v>
+        <v>1.023864033287237</v>
       </c>
       <c r="M12">
-        <v>1.029768480097682</v>
+        <v>1.035508467485276</v>
       </c>
       <c r="N12">
-        <v>1.020328358935443</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010381893420413</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037490195291975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9888809521099683</v>
+        <v>0.9893703177534624</v>
       </c>
       <c r="D13">
-        <v>1.014346636222122</v>
+        <v>1.015274022208476</v>
       </c>
       <c r="E13">
-        <v>1.007107249463715</v>
+        <v>1.009354446717549</v>
       </c>
       <c r="F13">
-        <v>1.0151815931017</v>
+        <v>1.021363563424707</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045769123206089</v>
+        <v>1.046237936187758</v>
       </c>
       <c r="J13">
-        <v>1.019069087507319</v>
+        <v>1.019537164302119</v>
       </c>
       <c r="K13">
-        <v>1.029160914905815</v>
+        <v>1.030071260227683</v>
       </c>
       <c r="L13">
-        <v>1.022055959929994</v>
+        <v>1.024261158560048</v>
       </c>
       <c r="M13">
-        <v>1.029980527680958</v>
+        <v>1.03604990596566</v>
       </c>
       <c r="N13">
-        <v>1.020516282500438</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010519945200147</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038195264511682</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9898442625636734</v>
+        <v>0.9902163231181402</v>
       </c>
       <c r="D14">
-        <v>1.015097466258122</v>
+        <v>1.015915784479795</v>
       </c>
       <c r="E14">
-        <v>1.007897655015801</v>
+        <v>1.01005600974543</v>
       </c>
       <c r="F14">
-        <v>1.016030782443239</v>
+        <v>1.022138899033246</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046076639656474</v>
+        <v>1.046490390239058</v>
       </c>
       <c r="J14">
-        <v>1.019681988994597</v>
+        <v>1.020038100410888</v>
       </c>
       <c r="K14">
-        <v>1.029756777436143</v>
+        <v>1.03056025085307</v>
       </c>
       <c r="L14">
-        <v>1.022688929895096</v>
+        <v>1.024807467374109</v>
       </c>
       <c r="M14">
-        <v>1.030673165173777</v>
+        <v>1.036671483860241</v>
       </c>
       <c r="N14">
-        <v>1.021130054378128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010702487396703</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038860064154933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9904354955650755</v>
+        <v>0.9906787948779615</v>
       </c>
       <c r="D15">
-        <v>1.015558355168199</v>
+        <v>1.016252711077878</v>
       </c>
       <c r="E15">
-        <v>1.008382961698145</v>
+        <v>1.010418998359973</v>
       </c>
       <c r="F15">
-        <v>1.016552144185804</v>
+        <v>1.022510817562393</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046265049953508</v>
+        <v>1.046616161919032</v>
       </c>
       <c r="J15">
-        <v>1.020058120462894</v>
+        <v>1.020291084077447</v>
       </c>
       <c r="K15">
-        <v>1.030122377476864</v>
+        <v>1.03080423618054</v>
       </c>
       <c r="L15">
-        <v>1.023077441465939</v>
+        <v>1.025076215390274</v>
       </c>
       <c r="M15">
-        <v>1.031098286855895</v>
+        <v>1.036950700949542</v>
       </c>
       <c r="N15">
-        <v>1.021506719996253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010790078234589</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039118316114866</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9938424585587886</v>
+        <v>0.9931531357237043</v>
       </c>
       <c r="D16">
-        <v>1.018215142590523</v>
+        <v>1.018002473131088</v>
       </c>
       <c r="E16">
-        <v>1.011182412256985</v>
+        <v>1.01228407520227</v>
       </c>
       <c r="F16">
-        <v>1.019559001234041</v>
+        <v>1.024298738065185</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047345725649946</v>
+        <v>1.047238118417864</v>
       </c>
       <c r="J16">
-        <v>1.022224953126248</v>
+        <v>1.021563400552205</v>
       </c>
       <c r="K16">
-        <v>1.032227389517746</v>
+        <v>1.032018374541268</v>
       </c>
       <c r="L16">
-        <v>1.025316564461832</v>
+        <v>1.026398986309114</v>
       </c>
       <c r="M16">
-        <v>1.033548201033207</v>
+        <v>1.038207274535871</v>
       </c>
       <c r="N16">
-        <v>1.023676629810528</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011209353812491</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040072772057457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9959501789260913</v>
+        <v>0.9946082439142343</v>
       </c>
       <c r="D17">
-        <v>1.019859504510342</v>
+        <v>1.019007819212854</v>
       </c>
       <c r="E17">
-        <v>1.012916762954177</v>
+        <v>1.013347420250832</v>
       </c>
       <c r="F17">
-        <v>1.021421345740458</v>
+        <v>1.025259934663407</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048009809555487</v>
+        <v>1.047578701131195</v>
       </c>
       <c r="J17">
-        <v>1.023564880316028</v>
+        <v>1.02227520785183</v>
       </c>
       <c r="K17">
-        <v>1.033528059877722</v>
+        <v>1.032690583175288</v>
       </c>
       <c r="L17">
-        <v>1.026702042505756</v>
+        <v>1.027125399367194</v>
       </c>
       <c r="M17">
-        <v>1.035063924315427</v>
+        <v>1.038839101749469</v>
       </c>
       <c r="N17">
-        <v>1.02501845985061</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011434637135995</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040443093024115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9971692979215439</v>
+        <v>0.995318106001197</v>
       </c>
       <c r="D18">
-        <v>1.020810850286621</v>
+        <v>1.019455421504946</v>
       </c>
       <c r="E18">
-        <v>1.013920786800273</v>
+        <v>1.013803820744319</v>
       </c>
       <c r="F18">
-        <v>1.022499286385482</v>
+        <v>1.025568305288684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048392284979436</v>
+        <v>1.04770603411157</v>
       </c>
       <c r="J18">
-        <v>1.024339673967538</v>
+        <v>1.022559164011656</v>
       </c>
       <c r="K18">
-        <v>1.034279776554142</v>
+        <v>1.032946571832477</v>
       </c>
       <c r="L18">
-        <v>1.027503479136957</v>
+        <v>1.027388461573576</v>
       </c>
       <c r="M18">
-        <v>1.035940634386938</v>
+        <v>1.038959823642677</v>
       </c>
       <c r="N18">
-        <v>1.025794353797975</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011509170713284</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040300734439588</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9975832708819719</v>
+        <v>0.9953455267792183</v>
       </c>
       <c r="D19">
-        <v>1.0211339335733</v>
+        <v>1.019390422658267</v>
       </c>
       <c r="E19">
-        <v>1.0142618648521</v>
+        <v>1.013701112217695</v>
       </c>
       <c r="F19">
-        <v>1.022865444453617</v>
+        <v>1.025275807941133</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04852188160374</v>
+        <v>1.047639080720154</v>
       </c>
       <c r="J19">
-        <v>1.024602728074363</v>
+        <v>1.022449872049908</v>
       </c>
       <c r="K19">
-        <v>1.034534931009774</v>
+        <v>1.032819845455759</v>
       </c>
       <c r="L19">
-        <v>1.027775630359978</v>
+        <v>1.027224166324156</v>
       </c>
       <c r="M19">
-        <v>1.03623833531355</v>
+        <v>1.038609775624339</v>
       </c>
       <c r="N19">
-        <v>1.026057781471803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011446665309177</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039698284628167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9957251104355833</v>
+        <v>0.9934765461126118</v>
       </c>
       <c r="D20">
-        <v>1.019683889605691</v>
+        <v>1.017911074961707</v>
       </c>
       <c r="E20">
-        <v>1.01273147373913</v>
+        <v>1.012058540679308</v>
       </c>
       <c r="F20">
-        <v>1.02122240095244</v>
+        <v>1.023352360777057</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047939065886085</v>
+        <v>1.047041753729468</v>
       </c>
       <c r="J20">
-        <v>1.023421822351614</v>
+        <v>1.021261272886022</v>
       </c>
       <c r="K20">
-        <v>1.03338923218037</v>
+        <v>1.031646125197649</v>
       </c>
       <c r="L20">
-        <v>1.026554089719739</v>
+        <v>1.025892618155252</v>
       </c>
       <c r="M20">
-        <v>1.034902069846446</v>
+        <v>1.036996650302736</v>
       </c>
       <c r="N20">
-        <v>1.024875198727478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011009088995754</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.037893669657687</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9895610714783726</v>
+        <v>0.9888638682387162</v>
       </c>
       <c r="D21">
-        <v>1.01487672556068</v>
+        <v>1.014614164982758</v>
       </c>
       <c r="E21">
-        <v>1.007665253288205</v>
+        <v>1.008527822954084</v>
       </c>
       <c r="F21">
-        <v>1.01578110454796</v>
+        <v>1.019897205305202</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045986305294952</v>
+        <v>1.045853562037917</v>
       </c>
       <c r="J21">
-        <v>1.019501817812405</v>
+        <v>1.018834679610827</v>
       </c>
       <c r="K21">
-        <v>1.029581630669867</v>
+        <v>1.029323858009546</v>
       </c>
       <c r="L21">
-        <v>1.022502845868895</v>
+        <v>1.023349414406703</v>
       </c>
       <c r="M21">
-        <v>1.030469542525802</v>
+        <v>1.034511175869568</v>
       </c>
       <c r="N21">
-        <v>1.020949627332192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.01019428370989</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035885656262641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9855861057445765</v>
+        <v>0.9859304099880239</v>
       </c>
       <c r="D22">
-        <v>1.011779601636694</v>
+        <v>1.012527266923373</v>
       </c>
       <c r="E22">
-        <v>1.0044067572805</v>
+        <v>1.006301351963192</v>
       </c>
       <c r="F22">
-        <v>1.012279691022796</v>
+        <v>1.01773482994095</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044712463397484</v>
+        <v>1.045090191472202</v>
       </c>
       <c r="J22">
-        <v>1.016972239370875</v>
+        <v>1.017300797823731</v>
       </c>
       <c r="K22">
-        <v>1.027121259273327</v>
+        <v>1.027854575145957</v>
       </c>
       <c r="L22">
-        <v>1.019891418028914</v>
+        <v>1.021749002936648</v>
       </c>
       <c r="M22">
-        <v>1.02761174772247</v>
+        <v>1.032962957436356</v>
       </c>
       <c r="N22">
-        <v>1.018416456599128</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009681150914421</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034660336206443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9877030760427946</v>
+        <v>0.987491131321957</v>
       </c>
       <c r="D23">
-        <v>1.013428754195421</v>
+        <v>1.013637352212812</v>
       </c>
       <c r="E23">
-        <v>1.006141323383288</v>
+        <v>1.007485172757624</v>
       </c>
       <c r="F23">
-        <v>1.014143726241329</v>
+        <v>1.018884570358985</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045392226877455</v>
+        <v>1.045497652681227</v>
       </c>
       <c r="J23">
-        <v>1.018319572216946</v>
+        <v>1.018117024686234</v>
       </c>
       <c r="K23">
-        <v>1.028432035444827</v>
+        <v>1.028636736366385</v>
       </c>
       <c r="L23">
-        <v>1.021282077600224</v>
+        <v>1.022600380522535</v>
       </c>
       <c r="M23">
-        <v>1.029133658854246</v>
+        <v>1.033786608304388</v>
       </c>
       <c r="N23">
-        <v>1.019765702812382</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009954206951289</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035312205681346</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9958268408912524</v>
+        <v>0.9935130699748366</v>
       </c>
       <c r="D24">
-        <v>1.019763266425183</v>
+        <v>1.017925194757211</v>
       </c>
       <c r="E24">
-        <v>1.012815221376552</v>
+        <v>1.01206903184104</v>
       </c>
       <c r="F24">
-        <v>1.021312321237271</v>
+        <v>1.023336431975784</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047971046942954</v>
+        <v>1.047040687711604</v>
       </c>
       <c r="J24">
-        <v>1.023486484946458</v>
+        <v>1.021263136094539</v>
       </c>
       <c r="K24">
-        <v>1.033451983854739</v>
+        <v>1.031644670248824</v>
       </c>
       <c r="L24">
-        <v>1.026620963845339</v>
+        <v>1.025887465667068</v>
       </c>
       <c r="M24">
-        <v>1.034975227692464</v>
+        <v>1.036965763458221</v>
       </c>
       <c r="N24">
-        <v>1.024939953150622</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011006637998777</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.037828307649268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00485366019945</v>
+        <v>1.000263144026756</v>
       </c>
       <c r="D25">
-        <v>1.026810746449845</v>
+        <v>1.022738621067544</v>
       </c>
       <c r="E25">
-        <v>1.020264042968288</v>
+        <v>1.017238305467932</v>
       </c>
       <c r="F25">
-        <v>1.029306369850647</v>
+        <v>1.028356491582499</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050773357888683</v>
+        <v>1.0487085740927</v>
       </c>
       <c r="J25">
-        <v>1.02921877616529</v>
+        <v>1.024781655569773</v>
       </c>
       <c r="K25">
-        <v>1.039006643366706</v>
+        <v>1.034993913900696</v>
       </c>
       <c r="L25">
-        <v>1.032555724106383</v>
+        <v>1.02957478546581</v>
       </c>
       <c r="M25">
-        <v>1.041466159964099</v>
+        <v>1.040529998402635</v>
       </c>
       <c r="N25">
-        <v>1.030680384880488</v>
+        <v>1.012183477225429</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040649165584835</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_37/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_7_37/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.005469410230519</v>
+        <v>1.005156723448046</v>
       </c>
       <c r="D2">
-        <v>1.026454643140848</v>
+        <v>1.02567306638108</v>
       </c>
       <c r="E2">
-        <v>1.021248548861103</v>
+        <v>1.020927251513896</v>
       </c>
       <c r="F2">
-        <v>1.032250420870088</v>
+        <v>1.03179840278104</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.049943434416049</v>
+        <v>1.049546608390234</v>
       </c>
       <c r="J2">
-        <v>1.027487753814445</v>
+        <v>1.027184284205544</v>
       </c>
       <c r="K2">
-        <v>1.037557326417788</v>
+        <v>1.036785956080081</v>
       </c>
       <c r="L2">
-        <v>1.032419586685561</v>
+        <v>1.03210253653127</v>
       </c>
       <c r="M2">
-        <v>1.043278021637709</v>
+        <v>1.04283182137176</v>
       </c>
       <c r="N2">
-        <v>1.013088389210133</v>
+        <v>1.014422625749614</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042824038005145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042470901459495</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.0218897535978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009153237141399</v>
+        <v>1.008687502549416</v>
       </c>
       <c r="D3">
-        <v>1.029084967893776</v>
+        <v>1.028100683714643</v>
       </c>
       <c r="E3">
-        <v>1.02409875086121</v>
+        <v>1.023640572401548</v>
       </c>
       <c r="F3">
-        <v>1.035017506462888</v>
+        <v>1.034422143905773</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050786301644021</v>
+        <v>1.05028603487825</v>
       </c>
       <c r="J3">
-        <v>1.029397448140721</v>
+        <v>1.028944106941243</v>
       </c>
       <c r="K3">
-        <v>1.039358749562948</v>
+        <v>1.038386205875303</v>
       </c>
       <c r="L3">
-        <v>1.034432296354201</v>
+        <v>1.033979645792189</v>
       </c>
       <c r="M3">
-        <v>1.045221110515108</v>
+        <v>1.044632745679404</v>
       </c>
       <c r="N3">
-        <v>1.013726841984145</v>
+        <v>1.014890569019814</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044361856010237</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043896207020481</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022212803908068</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011494356009624</v>
+        <v>1.010932392569863</v>
       </c>
       <c r="D4">
-        <v>1.03075668316955</v>
+        <v>1.029644341938027</v>
       </c>
       <c r="E4">
-        <v>1.025915701237119</v>
+        <v>1.025371293699918</v>
       </c>
       <c r="F4">
-        <v>1.036781224044582</v>
+        <v>1.036095460237171</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051307310172714</v>
+        <v>1.050741570472997</v>
       </c>
       <c r="J4">
-        <v>1.030608536076385</v>
+        <v>1.030060521369388</v>
       </c>
       <c r="K4">
-        <v>1.040497549724301</v>
+        <v>1.039397681232811</v>
       </c>
       <c r="L4">
-        <v>1.035711093134848</v>
+        <v>1.035172857114226</v>
       </c>
       <c r="M4">
-        <v>1.046455108775391</v>
+        <v>1.045776921101272</v>
       </c>
       <c r="N4">
-        <v>1.014131658847502</v>
+        <v>1.015187397816261</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.045338477048549</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.044801740350578</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022414365298018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.012468659335417</v>
+        <v>1.011866881549796</v>
       </c>
       <c r="D5">
-        <v>1.031452379101514</v>
+        <v>1.030286919187272</v>
       </c>
       <c r="E5">
-        <v>1.02667317274584</v>
+        <v>1.026093052657387</v>
       </c>
       <c r="F5">
-        <v>1.037516438037773</v>
+        <v>1.036793210028613</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051520572876642</v>
+        <v>1.050927644611177</v>
       </c>
       <c r="J5">
-        <v>1.031111914380573</v>
+        <v>1.03052463018645</v>
       </c>
       <c r="K5">
-        <v>1.040969994704866</v>
+        <v>1.039817257436809</v>
       </c>
       <c r="L5">
-        <v>1.036243185811402</v>
+        <v>1.035669466774623</v>
       </c>
       <c r="M5">
-        <v>1.046968421214834</v>
+        <v>1.04625297141059</v>
       </c>
       <c r="N5">
-        <v>1.014299897695897</v>
+        <v>1.015310785608333</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045744726612175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045178499924257</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022497336776427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01263167655227</v>
+        <v>1.012023250441614</v>
       </c>
       <c r="D6">
-        <v>1.03156877798654</v>
+        <v>1.030394440448631</v>
       </c>
       <c r="E6">
-        <v>1.026799986462868</v>
+        <v>1.026213901001694</v>
       </c>
       <c r="F6">
-        <v>1.037639521467246</v>
+        <v>1.036910034109695</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051556044225752</v>
+        <v>1.050958570223032</v>
       </c>
       <c r="J6">
-        <v>1.03119609951949</v>
+        <v>1.030602252389653</v>
       </c>
       <c r="K6">
-        <v>1.041048953846002</v>
+        <v>1.039887377641822</v>
       </c>
       <c r="L6">
-        <v>1.03633220679964</v>
+        <v>1.035752558615169</v>
       </c>
       <c r="M6">
-        <v>1.047054291832295</v>
+        <v>1.046332614289032</v>
       </c>
       <c r="N6">
-        <v>1.014328032804583</v>
+        <v>1.015331421721443</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045812686955483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045241531514275</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022511165243774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011507413238325</v>
+        <v>1.010952311853583</v>
       </c>
       <c r="D7">
-        <v>1.030766006760606</v>
+        <v>1.029658293606091</v>
       </c>
       <c r="E7">
-        <v>1.025925847439063</v>
+        <v>1.025387148786166</v>
       </c>
       <c r="F7">
-        <v>1.036791072375698</v>
+        <v>1.036109920124796</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051310182380152</v>
+        <v>1.05074679430957</v>
       </c>
       <c r="J7">
-        <v>1.030615284718899</v>
+        <v>1.030073956107086</v>
       </c>
       <c r="K7">
-        <v>1.04050388718275</v>
+        <v>1.039408590386667</v>
       </c>
       <c r="L7">
-        <v>1.035718224482092</v>
+        <v>1.035185630399295</v>
       </c>
       <c r="M7">
-        <v>1.046461988980715</v>
+        <v>1.045788359194147</v>
       </c>
       <c r="N7">
-        <v>1.014133914455642</v>
+        <v>1.015216810096444</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.045343922233507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.044810792780526</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02241700992113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.006723366242098</v>
+        <v>1.006381086229127</v>
       </c>
       <c r="D8">
-        <v>1.027349939517829</v>
+        <v>1.026515624779718</v>
       </c>
       <c r="E8">
-        <v>1.022217547080617</v>
+        <v>1.021868525064064</v>
       </c>
       <c r="F8">
-        <v>1.033191209732967</v>
+        <v>1.032705979208506</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050233376032862</v>
+        <v>1.049809625183231</v>
       </c>
       <c r="J8">
-        <v>1.028138319464968</v>
+        <v>1.027805792226832</v>
       </c>
       <c r="K8">
-        <v>1.038171756817673</v>
+        <v>1.037348015174843</v>
       </c>
       <c r="L8">
-        <v>1.033104747928375</v>
+        <v>1.03276020205404</v>
       </c>
       <c r="M8">
-        <v>1.043939597991327</v>
+        <v>1.04346042773658</v>
       </c>
       <c r="N8">
-        <v>1.013305902731957</v>
+        <v>1.014666440963111</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043347629462083</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.042968399724574</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022005198655195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.997953799344374</v>
+        <v>0.9979857643602067</v>
       </c>
       <c r="D9">
-        <v>1.021091150872367</v>
+        <v>1.020746579407936</v>
       </c>
       <c r="E9">
-        <v>1.015466015417183</v>
+        <v>1.015450384504692</v>
       </c>
       <c r="F9">
-        <v>1.026635429380309</v>
+        <v>1.026498122371335</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048145930912496</v>
+        <v>1.047971333998357</v>
       </c>
       <c r="J9">
-        <v>1.023579021725281</v>
+        <v>1.023609851533077</v>
       </c>
       <c r="K9">
-        <v>1.033851062022497</v>
+        <v>1.033511792347006</v>
       </c>
       <c r="L9">
-        <v>1.028313053726902</v>
+        <v>1.028297666639326</v>
       </c>
       <c r="M9">
-        <v>1.039310656449578</v>
+        <v>1.039175432608508</v>
       </c>
       <c r="N9">
-        <v>1.011781259167891</v>
+        <v>1.013560093850754</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039684137736741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.039577117003744</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021216239750393</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9919092245552773</v>
+        <v>0.9922366566461217</v>
       </c>
       <c r="D10">
-        <v>1.016797597189013</v>
+        <v>1.016816798196675</v>
       </c>
       <c r="E10">
-        <v>1.010867726767774</v>
+        <v>1.011112112184389</v>
       </c>
       <c r="F10">
-        <v>1.022202656032957</v>
+        <v>1.02233055745489</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.04664736529593</v>
+        <v>1.046657079787325</v>
       </c>
       <c r="J10">
-        <v>1.020447566737252</v>
+        <v>1.020761711355379</v>
       </c>
       <c r="K10">
-        <v>1.030870047501529</v>
+        <v>1.030888916496946</v>
       </c>
       <c r="L10">
-        <v>1.025043494804883</v>
+        <v>1.025283591203855</v>
       </c>
       <c r="M10">
-        <v>1.036182281370893</v>
+        <v>1.036308001603566</v>
       </c>
       <c r="N10">
-        <v>1.010737754399287</v>
+        <v>1.012922371048468</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.037259746082349</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.037359239439777</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020668928721636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9896264274463941</v>
+        <v>0.9901007844878436</v>
       </c>
       <c r="D11">
-        <v>1.015297446334007</v>
+        <v>1.015473201093582</v>
       </c>
       <c r="E11">
-        <v>1.009314269750361</v>
+        <v>1.009683771370496</v>
       </c>
       <c r="F11">
-        <v>1.020968277738183</v>
+        <v>1.021218214932953</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046169246047401</v>
+        <v>1.046258110631168</v>
       </c>
       <c r="J11">
-        <v>1.019437218786086</v>
+        <v>1.019891260885032</v>
       </c>
       <c r="K11">
-        <v>1.029936528481717</v>
+        <v>1.030109098112191</v>
       </c>
       <c r="L11">
-        <v>1.024062644594751</v>
+        <v>1.024425347761253</v>
       </c>
       <c r="M11">
-        <v>1.035505308049901</v>
+        <v>1.035750781253701</v>
       </c>
       <c r="N11">
-        <v>1.010434739874847</v>
+        <v>1.012943624334843</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037160870040791</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.037355036417093</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020533258689004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9889152311273014</v>
+        <v>0.9894357340206169</v>
       </c>
       <c r="D12">
-        <v>1.014880391510074</v>
+        <v>1.015102662872334</v>
       </c>
       <c r="E12">
-        <v>1.008905482320561</v>
+        <v>1.00931300993514</v>
       </c>
       <c r="F12">
-        <v>1.020768630711158</v>
+        <v>1.021055876598859</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046060836883143</v>
+        <v>1.046173195576636</v>
       </c>
       <c r="J12">
-        <v>1.019196241619462</v>
+        <v>1.019694020991631</v>
       </c>
       <c r="K12">
-        <v>1.029727953565394</v>
+        <v>1.02994612889813</v>
       </c>
       <c r="L12">
-        <v>1.023864033287237</v>
+        <v>1.024263936230648</v>
       </c>
       <c r="M12">
-        <v>1.035508467485276</v>
+        <v>1.035790499556713</v>
       </c>
       <c r="N12">
-        <v>1.010381893420413</v>
+        <v>1.013011964377922</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037490195291975</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.037713203595231</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020518289320771</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9893703177534624</v>
+        <v>0.9898518846910531</v>
       </c>
       <c r="D13">
-        <v>1.015274022208476</v>
+        <v>1.015453346949703</v>
       </c>
       <c r="E13">
-        <v>1.009354446717549</v>
+        <v>1.009727011603467</v>
       </c>
       <c r="F13">
-        <v>1.021363563424707</v>
+        <v>1.021618166934898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046237936187758</v>
+        <v>1.046328590822059</v>
       </c>
       <c r="J13">
-        <v>1.019537164302119</v>
+        <v>1.019997811003224</v>
       </c>
       <c r="K13">
-        <v>1.030071260227683</v>
+        <v>1.030247294564386</v>
       </c>
       <c r="L13">
-        <v>1.024261158560048</v>
+        <v>1.024626784024938</v>
       </c>
       <c r="M13">
-        <v>1.03604990596566</v>
+        <v>1.036299910372433</v>
       </c>
       <c r="N13">
-        <v>1.010519945200147</v>
+        <v>1.013086658218246</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038195264511682</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.038392898121982</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020596552271829</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9902163231181402</v>
+        <v>0.9906329560947821</v>
       </c>
       <c r="D14">
-        <v>1.015915784479795</v>
+        <v>1.016025245147921</v>
       </c>
       <c r="E14">
-        <v>1.01005600974543</v>
+        <v>1.010371940929619</v>
       </c>
       <c r="F14">
-        <v>1.022138899033246</v>
+        <v>1.022339689442518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046490390239058</v>
+        <v>1.046545735870888</v>
       </c>
       <c r="J14">
-        <v>1.020038100410888</v>
+        <v>1.020436893839667</v>
       </c>
       <c r="K14">
-        <v>1.03056025085307</v>
+        <v>1.030667728194398</v>
       </c>
       <c r="L14">
-        <v>1.024807467374109</v>
+        <v>1.02511758886494</v>
       </c>
       <c r="M14">
-        <v>1.036671483860241</v>
+        <v>1.036868693828706</v>
       </c>
       <c r="N14">
-        <v>1.010702487396703</v>
+        <v>1.01314273494236</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038860064154933</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.039015941602544</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020693424117384</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9906787948779615</v>
+        <v>0.9910615362881251</v>
       </c>
       <c r="D15">
-        <v>1.016252711077878</v>
+        <v>1.016325806183667</v>
       </c>
       <c r="E15">
-        <v>1.010418998359973</v>
+        <v>1.010705637504238</v>
       </c>
       <c r="F15">
-        <v>1.022510817562393</v>
+        <v>1.02268351286425</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046616161919032</v>
+        <v>1.04665312422572</v>
       </c>
       <c r="J15">
-        <v>1.020291084077447</v>
+        <v>1.020657580727716</v>
       </c>
       <c r="K15">
-        <v>1.03080423618054</v>
+        <v>1.03087601699172</v>
       </c>
       <c r="L15">
-        <v>1.025076215390274</v>
+        <v>1.02535762426979</v>
       </c>
       <c r="M15">
-        <v>1.036950700949542</v>
+        <v>1.037120340574272</v>
       </c>
       <c r="N15">
-        <v>1.010790078234589</v>
+        <v>1.013161861877329</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039118316114866</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.039252398055659</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020738917601906</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9931531357237043</v>
+        <v>0.9933685925616932</v>
       </c>
       <c r="D16">
-        <v>1.018002473131088</v>
+        <v>1.017893456313989</v>
       </c>
       <c r="E16">
-        <v>1.01228407520227</v>
+        <v>1.012426658164062</v>
       </c>
       <c r="F16">
-        <v>1.024298738065185</v>
+        <v>1.024331297114883</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047238118417864</v>
+        <v>1.047182958080586</v>
       </c>
       <c r="J16">
-        <v>1.021563400552205</v>
+        <v>1.021770171561516</v>
       </c>
       <c r="K16">
-        <v>1.032018374541268</v>
+        <v>1.031911231819647</v>
       </c>
       <c r="L16">
-        <v>1.026398986309114</v>
+        <v>1.026539082950624</v>
       </c>
       <c r="M16">
-        <v>1.038207274535871</v>
+        <v>1.038239282809785</v>
       </c>
       <c r="N16">
-        <v>1.011209353812491</v>
+        <v>1.013247139587396</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040072772057457</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.040098071892399</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020954209672619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9946082439142343</v>
+        <v>0.9947376210940007</v>
       </c>
       <c r="D17">
-        <v>1.019007819212854</v>
+        <v>1.018801627019395</v>
       </c>
       <c r="E17">
-        <v>1.013347420250832</v>
+        <v>1.013415737452179</v>
       </c>
       <c r="F17">
-        <v>1.025259934663407</v>
+        <v>1.025218734168547</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.047578701131195</v>
+        <v>1.047474332438081</v>
       </c>
       <c r="J17">
-        <v>1.02227520785183</v>
+        <v>1.022399537669451</v>
       </c>
       <c r="K17">
-        <v>1.032690583175288</v>
+        <v>1.032487835471571</v>
       </c>
       <c r="L17">
-        <v>1.027125399367194</v>
+        <v>1.027192559201928</v>
       </c>
       <c r="M17">
-        <v>1.038839101749469</v>
+        <v>1.038798578622881</v>
       </c>
       <c r="N17">
-        <v>1.011434637135995</v>
+        <v>1.013311519940741</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040443093024115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.040411059721477</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021068514578343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.995318106001197</v>
+        <v>0.9954138273423989</v>
       </c>
       <c r="D18">
-        <v>1.019455421504946</v>
+        <v>1.019209929760797</v>
       </c>
       <c r="E18">
-        <v>1.013803820744319</v>
+        <v>1.013843417524408</v>
       </c>
       <c r="F18">
-        <v>1.025568305288684</v>
+        <v>1.02549741437796</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04770603411157</v>
+        <v>1.047581746111814</v>
       </c>
       <c r="J18">
-        <v>1.022559164011656</v>
+        <v>1.022651221438977</v>
       </c>
       <c r="K18">
-        <v>1.032946571832477</v>
+        <v>1.032705113383807</v>
       </c>
       <c r="L18">
-        <v>1.027388461573576</v>
+        <v>1.027427398661282</v>
       </c>
       <c r="M18">
-        <v>1.038959823642677</v>
+        <v>1.038890079421144</v>
       </c>
       <c r="N18">
-        <v>1.011509170713284</v>
+        <v>1.013323026815588</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040300734439588</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.040245590517597</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02110127240947</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9953455267792183</v>
+        <v>0.9954504420472546</v>
       </c>
       <c r="D19">
-        <v>1.019390422658267</v>
+        <v>1.019155183703482</v>
       </c>
       <c r="E19">
-        <v>1.013701112217695</v>
+        <v>1.013749622181833</v>
       </c>
       <c r="F19">
-        <v>1.025275807941133</v>
+        <v>1.025212307904871</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047639080720154</v>
+        <v>1.047519975652333</v>
       </c>
       <c r="J19">
-        <v>1.022449872049908</v>
+        <v>1.02255079536744</v>
       </c>
       <c r="K19">
-        <v>1.032819845455759</v>
+        <v>1.032588451294381</v>
       </c>
       <c r="L19">
-        <v>1.027224166324156</v>
+        <v>1.027271872221294</v>
       </c>
       <c r="M19">
-        <v>1.038609775624339</v>
+        <v>1.038547297991322</v>
       </c>
       <c r="N19">
-        <v>1.011446665309177</v>
+        <v>1.013266346407877</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039698284628167</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.039648869937125</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021057906021573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9934765461126118</v>
+        <v>0.9937063310758014</v>
       </c>
       <c r="D20">
-        <v>1.017911074961707</v>
+        <v>1.01782069254002</v>
       </c>
       <c r="E20">
-        <v>1.012058540679308</v>
+        <v>1.012217943167868</v>
       </c>
       <c r="F20">
-        <v>1.023352360777057</v>
+        <v>1.023396922500182</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047041753729468</v>
+        <v>1.046996008304298</v>
       </c>
       <c r="J20">
-        <v>1.021261272886022</v>
+        <v>1.021482037601407</v>
       </c>
       <c r="K20">
-        <v>1.031646125197649</v>
+        <v>1.031557260919869</v>
       </c>
       <c r="L20">
-        <v>1.025892618155252</v>
+        <v>1.026049303898217</v>
       </c>
       <c r="M20">
-        <v>1.036996650302736</v>
+        <v>1.037040473864816</v>
       </c>
       <c r="N20">
-        <v>1.011009088995754</v>
+        <v>1.01301506404071</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.037893669657687</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.037928351471251</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020808328465881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9888638682387162</v>
+        <v>0.9894247101654441</v>
       </c>
       <c r="D21">
-        <v>1.014614164982758</v>
+        <v>1.014879154938245</v>
       </c>
       <c r="E21">
-        <v>1.008527822954084</v>
+        <v>1.008974365086528</v>
       </c>
       <c r="F21">
-        <v>1.019897205305202</v>
+        <v>1.020217860360585</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045853562037917</v>
+        <v>1.045987533527247</v>
       </c>
       <c r="J21">
-        <v>1.018834679610827</v>
+        <v>1.019371331962054</v>
       </c>
       <c r="K21">
-        <v>1.029323858009546</v>
+        <v>1.029584015761626</v>
       </c>
       <c r="L21">
-        <v>1.023349414406703</v>
+        <v>1.023787686956586</v>
       </c>
       <c r="M21">
-        <v>1.034511175869568</v>
+        <v>1.034826062501493</v>
       </c>
       <c r="N21">
-        <v>1.01019428370989</v>
+        <v>1.012868770697287</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035885656262641</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.036134869484371</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020392617466997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9859304099880239</v>
+        <v>0.9867007062105568</v>
       </c>
       <c r="D22">
-        <v>1.012527266923373</v>
+        <v>1.013017158987263</v>
       </c>
       <c r="E22">
-        <v>1.006301351963192</v>
+        <v>1.006929382684956</v>
       </c>
       <c r="F22">
-        <v>1.01773482994095</v>
+        <v>1.018230219467224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045090191472202</v>
+        <v>1.045337697015582</v>
       </c>
       <c r="J22">
-        <v>1.017300797823731</v>
+        <v>1.018035923793749</v>
       </c>
       <c r="K22">
-        <v>1.027854575145957</v>
+        <v>1.028335080089755</v>
       </c>
       <c r="L22">
-        <v>1.021749002936648</v>
+        <v>1.022364805753789</v>
       </c>
       <c r="M22">
-        <v>1.032962957436356</v>
+        <v>1.033448981071197</v>
       </c>
       <c r="N22">
-        <v>1.009681150914421</v>
+        <v>1.012771374641365</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034660336206443</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.035044994371508</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020128544197116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.987491131321957</v>
+        <v>0.9881381148153459</v>
       </c>
       <c r="D23">
-        <v>1.013637352212812</v>
+        <v>1.01399893765454</v>
       </c>
       <c r="E23">
-        <v>1.007485172757624</v>
+        <v>1.008006641588409</v>
       </c>
       <c r="F23">
-        <v>1.018884570358985</v>
+        <v>1.019278714959291</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045497652681227</v>
+        <v>1.045680400956182</v>
       </c>
       <c r="J23">
-        <v>1.018117024686234</v>
+        <v>1.018735340339937</v>
       </c>
       <c r="K23">
-        <v>1.028636736366385</v>
+        <v>1.028991571508665</v>
       </c>
       <c r="L23">
-        <v>1.022600380522535</v>
+        <v>1.023111960260467</v>
       </c>
       <c r="M23">
-        <v>1.033786608304388</v>
+        <v>1.034173493478854</v>
       </c>
       <c r="N23">
-        <v>1.009954206951289</v>
+        <v>1.012781205253641</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035312205681346</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.03561840151556</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020266890619738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9935130699748366</v>
+        <v>0.9937421711010294</v>
       </c>
       <c r="D24">
-        <v>1.017925194757211</v>
+        <v>1.01783405649863</v>
       </c>
       <c r="E24">
-        <v>1.01206903184104</v>
+        <v>1.012227995976562</v>
       </c>
       <c r="F24">
-        <v>1.023336431975784</v>
+        <v>1.023380401954998</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047040687711604</v>
+        <v>1.046994558942447</v>
       </c>
       <c r="J24">
-        <v>1.021263136094539</v>
+        <v>1.021483257396122</v>
       </c>
       <c r="K24">
-        <v>1.031644670248824</v>
+        <v>1.031555060813019</v>
       </c>
       <c r="L24">
-        <v>1.025887465667068</v>
+        <v>1.026043724079933</v>
       </c>
       <c r="M24">
-        <v>1.036965763458221</v>
+        <v>1.037009005981673</v>
       </c>
       <c r="N24">
-        <v>1.011006637998777</v>
+        <v>1.013009250525103</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.037828307649268</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.037862531333905</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02080513826996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.000263144026756</v>
+        <v>1.000186464578491</v>
       </c>
       <c r="D25">
-        <v>1.022738621067544</v>
+        <v>1.022257791811622</v>
       </c>
       <c r="E25">
-        <v>1.017238305467932</v>
+        <v>1.017126568887018</v>
       </c>
       <c r="F25">
-        <v>1.028356491582499</v>
+        <v>1.028120612478933</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.0487085740927</v>
+        <v>1.048464787981481</v>
       </c>
       <c r="J25">
-        <v>1.024781655569773</v>
+        <v>1.0247075550758</v>
       </c>
       <c r="K25">
-        <v>1.034993913900696</v>
+        <v>1.034520137661257</v>
       </c>
       <c r="L25">
-        <v>1.02957478546581</v>
+        <v>1.029464709736804</v>
       </c>
       <c r="M25">
-        <v>1.040529998402635</v>
+        <v>1.04029753048755</v>
       </c>
       <c r="N25">
-        <v>1.012183477225429</v>
+        <v>1.013819137214292</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040649165584835</v>
+        <v>1.040465182831157</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021425434776507</v>
       </c>
     </row>
   </sheetData>
